--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B3294-B1CB-44A6-B267-765168497A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D133B619-10D8-4B2F-A045-D167E12713A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -283,6 +283,20 @@
 流程別對應之扣薪種類，建立於CdCode(EmpDeductType)，
 1:15日薪-12個月
 2:非15日薪-13個工作月</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayEndDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>應繳截止日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-11新增
+原系統有此欄位
+TBYGYMP.YGEPDT</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +385,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +564,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1087,25 +1110,24 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>20</v>
+      <c r="B13" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="22">
+        <v>8</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -1113,63 +1135,84 @@
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="22">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E14" s="22"/>
       <c r="F14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="22">
+        <v>6</v>
+      </c>
       <c r="F15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="22">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>9</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="22">
+        <v>6</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D133B619-10D8-4B2F-A045-D167E12713A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -279,13 +278,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>同CdEmp.AgType1制度別(3、4：15日薪)；
-流程別對應之扣薪種類，建立於CdCode(EmpDeductType)，
-1:15日薪-12個月
-2:非15日薪-13個工作月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>RepayEndDate</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -297,14 +289,21 @@
     <t>2022-03-11新增
 原系統有此欄位
 TBYGYMP.YGEPDT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同CdEmp.AgType1制度別(4、5：15日薪)；
+流程別對應之扣薪種類，建立於CdCode(EmpDeductType)，
+15日薪-12個月
+非15日薪-13個工作月</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +552,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -564,14 +566,11 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,23 +661,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -714,23 +696,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -906,14 +871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -924,11 +889,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
@@ -939,9 +904,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -952,11 +917,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
         <v>44</v>
       </c>
@@ -967,51 +932,51 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1054,7 +1019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="64.8">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1071,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1092,7 +1057,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1110,15 +1075,15 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>40</v>
@@ -1126,11 +1091,11 @@
       <c r="E13" s="22">
         <v>8</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G13" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1151,7 +1116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1172,7 +1137,7 @@
       </c>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1193,7 +1158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1233,7 +1198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1241,7 +1206,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1249,7 +1214,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1268,7 +1233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
         <v>48</v>
       </c>
@@ -1276,7 +1241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
         <v>46</v>
       </c>
@@ -1284,7 +1249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -1295,7 +1260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -1306,7 +1271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -1317,7 +1282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -292,10 +292,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>同CdEmp.AgType1制度別(4、5：15日薪)；
-流程別對應之扣薪種類，建立於CdCode(EmpDeductType)，
-15日薪-12個月
-非15日薪-13個工作月</t>
+    <t>4、5：15日薪；
+else : 非15日薪</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +873,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1019,7 +1017,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="64.8">
+    <row r="10" spans="1:7" ht="32.4">
       <c r="A10" s="19">
         <v>2</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA36FE4-DC72-4ED2-A0C2-F637AA127406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -111,10 +103,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -295,13 +283,16 @@
     <t>4、5：15日薪；
 else : 非15日薪</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,10 +478,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -502,9 +493,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,9 +504,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,7 +553,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,9 +569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -624,9 +609,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,7 +646,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -696,7 +681,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -869,112 +854,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.21875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.21875" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="27" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="B7" s="27"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -993,190 +978,190 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20">
+        <v>6</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="20">
+        <v>8</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20">
+        <v>8</v>
+      </c>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="20">
+        <v>8</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32.4">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="B14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="E14" s="20"/>
+      <c r="F14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="22">
-        <v>8</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="48.6">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="22">
-        <v>8</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="B16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="20">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="F17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="22">
-        <v>6</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="G17" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="22">
-        <v>6</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1204,7 +1189,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1212,7 +1197,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,72 +1208,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B3" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="18" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
